--- a/File/Testcase.xlsx
+++ b/File/Testcase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bethechangedng-my.sharepoint.com/personal/admin_bethechangedng_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PasssterProject\PasssterProject\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="8_{D3EBD9BD-AD1E-4B6F-9F70-8F77C279DC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5AEAD1D-9306-496C-B41F-201430C92D4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD9D85B-0BC7-4665-B4CA-112A96F7646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A07D1C3D-30F1-4031-BCF8-80C7368A70B2}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Not encrypted password</t>
   </si>
   <si>
-    <t>Check if the password is masked or visible in the form of asterisks to ensure secured login.</t>
-  </si>
-  <si>
     <t>Disable password field</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>Password field is displayed and able enter password</t>
-  </si>
-  <si>
-    <t>Verify if the login is possible with a valid password.</t>
   </si>
   <si>
     <t>Content in body page s displayed.
@@ -143,9 +137,6 @@
   </si>
   <si>
     <t>Verify the functionality of the view icon (if password filed have, verify that clicking on the view icon password getting displayed)</t>
-  </si>
-  <si>
-    <t>Verify if enter the wrong 5 times,will be locked or have to wait 60 seconds before you can re-enter the password</t>
   </si>
   <si>
     <t>Verify the 128 characters  for the password field</t>
@@ -283,6 +274,15 @@
   </si>
   <si>
     <t>The submit button is enable</t>
+  </si>
+  <si>
+    <t>Verify that if the password is masked or visible in the form of asterisks to ensure secured login.</t>
+  </si>
+  <si>
+    <t>Verify that if the login is possible with a valid password.</t>
+  </si>
+  <si>
+    <t>Verify that if enter the wrong 5 times,will be locked or have to wait 60 seconds before you can re-enter the password</t>
   </si>
 </sst>
 </file>
@@ -500,13 +500,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,7 +828,7 @@
   <dimension ref="A1:Y1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -899,11 +899,11 @@
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>12</v>
@@ -912,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -936,22 +936,22 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="H3" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -975,13 +975,13 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>13</v>
@@ -990,7 +990,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1014,13 +1014,13 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>14</v>
@@ -1029,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1053,13 +1053,13 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1092,13 +1092,13 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>14</v>
@@ -1107,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1131,13 +1131,13 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>14</v>
@@ -1146,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1170,22 +1170,22 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1209,22 +1209,22 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="11" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1248,22 +1248,22 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="11" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1287,22 +1287,22 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1326,22 +1326,22 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1393,14 +1393,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>12</v>
@@ -1409,7 +1409,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1433,22 +1433,22 @@
       <c r="A16" s="7">
         <v>2</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1472,13 +1472,13 @@
       <c r="A17" s="7">
         <v>3</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>13</v>
@@ -1487,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1511,13 +1511,13 @@
       <c r="A18" s="7">
         <v>4</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>14</v>
@@ -1526,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1550,13 +1550,13 @@
       <c r="A19" s="7">
         <v>5</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>11</v>
@@ -1565,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1589,13 +1589,13 @@
       <c r="A20" s="7">
         <v>6</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>14</v>
@@ -1604,7 +1604,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1628,13 +1628,13 @@
       <c r="A21" s="7">
         <v>7</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>14</v>
@@ -1643,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1667,22 +1667,22 @@
       <c r="A22" s="7">
         <v>8</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1706,22 +1706,22 @@
       <c r="A23" s="7">
         <v>9</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1745,22 +1745,22 @@
       <c r="A24" s="7">
         <v>10</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="11" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1784,22 +1784,22 @@
       <c r="A25" s="7">
         <v>11</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1823,22 +1823,22 @@
       <c r="A26" s="7">
         <v>12</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="8" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
